--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetDataBrokenIMGListForMobile.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/12oceanbetDataBrokenIMGListForMobile.xlsx
@@ -12,9 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>1726  Game Provider Name = PragmaticPlay   Game Name =  Jacks or Better  cod = 403   src = https://resources.oceanbet.io/products/</t>
+    <t>352  Game Provider Name = NucleusGaming   Game Name =  Wild Adventures  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/wanted_dead_or_a_wild.jpg</t>
+  </si>
+  <si>
+    <t>878  Game Provider Name = PlaynGo   Game Name =  Charlie Chance  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/chaos_crew.jpg</t>
+  </si>
+  <si>
+    <t>1713  Game Provider Name = PlaynGo   Game Name =  IronGirl  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/ironbank_rg.jpg</t>
+  </si>
+  <si>
+    <t>2107  Game Provider Name = TomHorn   Game Name =  Monkey 27  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/moneytrain2_rg.jpg</t>
+  </si>
+  <si>
+    <t>2670  Game Provider Name = PlaynGo   Game Name =  Snakebite  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/snakearena_rg.jpg</t>
+  </si>
+  <si>
+    <t>2851  Game Provider Name = PragmaticPlay   Game Name =  Temujin Treasures  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/templetumble_rg.jpg</t>
+  </si>
+  <si>
+    <t>3160  Game Provider Name = QuickSpin   Game Name =  WildChase  cod = 404   src = https://resources.oceanbet.io/products/outcomebet/wildchapo_rg.jpg</t>
   </si>
 </sst>
 </file>
@@ -59,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -73,6 +91,36 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
